--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2215.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2215.xlsx
@@ -351,10 +351,10 @@
         <v>1.345231836460315</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.078011460130917</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2215.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2215.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.345231836460315</v>
+        <v>0.9609749913215637</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.179699659347534</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>8.268882751464844</v>
       </c>
       <c r="D1">
-        <v>1.078011460130917</v>
+        <v>1.888365030288696</v>
       </c>
       <c r="E1">
-        <v>0.7439842961632861</v>
+        <v>1.175182461738586</v>
       </c>
     </row>
   </sheetData>
